--- a/Other/time_offset.xlsx
+++ b/Other/time_offset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\4_Projects\8_FerLAS\Andere Dateien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\4_Projects\Buehler_2024_AMT\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5C3300-43B3-471C-9732-515CE9D9F87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A098D-4B44-43E0-849C-31947C7D0B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitversatz_Stockerematt" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
   <si>
     <t>Instrument</t>
-  </si>
-  <si>
-    <t>Referenzzeit (CET/CEST)</t>
-  </si>
-  <si>
-    <t>GFZeit</t>
   </si>
   <si>
     <t>GF16</t>
@@ -72,6 +66,12 @@
   </si>
   <si>
     <t>WS1</t>
+  </si>
+  <si>
+    <t>DeviceTime</t>
+  </si>
+  <si>
+    <t>ReferenceTime (CET)</t>
   </si>
 </sst>
 </file>
@@ -546,11 +546,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -611,9 +609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -651,7 +649,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -757,7 +755,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -899,7 +897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -910,29 +908,29 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>44181.586805555555</v>
@@ -940,11 +938,11 @@
       <c r="C2" s="1">
         <v>44181.585763888892</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>44181.584027777775</v>
@@ -952,11 +950,11 @@
       <c r="C3" s="1">
         <v>44181.601041666669</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>44215.362847222219</v>
@@ -965,9 +963,9 @@
         <v>44215.294062499997</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>44223.492013888892</v>
@@ -976,9 +974,9 @@
         <v>44223.422835648147</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>44215.36215277778</v>
@@ -987,9 +985,9 @@
         <v>44215.252523148149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>44223.492361111108</v>
@@ -998,9 +996,9 @@
         <v>44223.382106481484</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>44215.363194444442</v>
@@ -1009,9 +1007,9 @@
         <v>44215.290937500002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>44223.493402777778</v>
@@ -1020,9 +1018,9 @@
         <v>44223.420740740738</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>44215.363888888889</v>
@@ -1031,9 +1029,9 @@
         <v>44215.294490740744</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>44223.492708333331</v>
@@ -1042,9 +1040,9 @@
         <v>44223.422905092593</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>44215.361458333333</v>
@@ -1053,9 +1051,9 @@
         <v>44215.308611111112</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>44223.493750000001</v>
@@ -1064,9 +1062,9 @@
         <v>44223.440752314818</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>44215.354861111111</v>
@@ -1074,11 +1072,11 @@
       <c r="C14" s="1">
         <v>44215.371898148151</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>44223.512499999997</v>
@@ -1086,11 +1084,11 @@
       <c r="C15" s="1">
         <v>44223.529641203706</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>44215.35833333333</v>
@@ -1098,11 +1096,11 @@
       <c r="C16" s="1">
         <v>44215.357349537036</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>44223.506249999999</v>
@@ -1111,9 +1109,9 @@
         <v>44223.505358796298</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>44239.636805555558</v>
@@ -1122,9 +1120,9 @@
         <v>44239.653900462959</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>44260.600694444445</v>
@@ -1133,9 +1131,9 @@
         <v>44260.546979166669</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
         <v>44260.6</v>
@@ -1144,9 +1142,9 @@
         <v>44260.528321759259</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>44260.599305555559</v>
@@ -1155,9 +1153,9 @@
         <v>44260.524675925924</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>44260.598611111112</v>
@@ -1166,9 +1164,9 @@
         <v>44260.485381944447</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>44260.597916666666</v>
@@ -1177,9 +1175,9 @@
         <v>44260.526875000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
         <v>44272.386111111111</v>
@@ -1188,9 +1186,9 @@
         <v>44272.403657407405</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>44276.386111111111</v>
@@ -1199,9 +1197,9 @@
         <v>44276.314282407409</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>44276.375347222223</v>
@@ -1210,9 +1208,9 @@
         <v>44276.260891203703</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
         <v>44276.379513888889</v>
@@ -1221,9 +1219,9 @@
         <v>44276.304074074076</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1">
         <v>44276.390625</v>
@@ -1232,9 +1230,9 @@
         <v>44276.318148148152</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1">
         <v>44276.440625000003</v>
@@ -1243,9 +1241,9 @@
         <v>44276.386643518519</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1">
         <v>44276.422222222223</v>
@@ -1254,9 +1252,9 @@
         <v>44276.439803240741</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
         <v>44276.427777777775</v>
@@ -1265,9 +1263,9 @@
         <v>44276.427870370368</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1">
         <v>44276.415625000001</v>
@@ -1276,9 +1274,9 @@
         <v>44276.416064814817</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1">
         <v>44276.443402777775</v>
@@ -1287,9 +1285,9 @@
         <v>44276.444166666668</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1">
         <v>44278.65</v>
@@ -1298,124 +1296,124 @@
         <v>44278.65079861111</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44281.388888888891</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44281.316828703704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44281.385069444441</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44281.270231481481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
-        <v>44281.388888888891</v>
-      </c>
-      <c r="C35" s="3">
-        <v>44281.316828703704</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="1">
+        <v>44281.387152777781</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44281.31145833333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3">
-        <v>44281.385069444441</v>
-      </c>
-      <c r="C36" s="3">
-        <v>44281.270231481481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="1">
+        <v>44281.39166666667</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44281.31894675926</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3">
-        <v>44281.387152777781</v>
-      </c>
-      <c r="C37" s="3">
-        <v>44281.31145833333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="B39" s="1">
+        <v>44281.381944444445</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44281.327870370369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="3">
-        <v>44281.39166666667</v>
-      </c>
-      <c r="C38" s="3">
-        <v>44281.31894675926</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="1">
+        <v>44281.417361111111</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44281.434999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="3">
-        <v>44281.381944444445</v>
-      </c>
-      <c r="C39" s="3">
-        <v>44281.327870370369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="B41" s="1">
+        <v>44281.412847222222</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44281.413541666669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="3">
-        <v>44281.417361111111</v>
-      </c>
-      <c r="C40" s="3">
-        <v>44281.434999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="B42" s="1">
+        <v>44281.40902777778</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44281.409722222219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="3">
-        <v>44281.412847222222</v>
-      </c>
-      <c r="C41" s="3">
-        <v>44281.413541666669</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="B43" s="1">
+        <v>44281.399652777778</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44281.400451388887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44281.419444444444</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44281.420231481483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="3">
-        <v>44281.40902777778</v>
-      </c>
-      <c r="C42" s="3">
-        <v>44281.409722222219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="3">
-        <v>44281.399652777778</v>
-      </c>
-      <c r="C43" s="3">
-        <v>44281.400451388887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="3">
-        <v>44281.419444444444</v>
-      </c>
-      <c r="C44" s="3">
-        <v>44281.420231481483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>44281.42083333333</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>44281.419907407406</v>
       </c>
     </row>
